--- a/xlsx/祖先_intext.xlsx
+++ b/xlsx/祖先_intext.xlsx
@@ -35,25 +35,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E8%A6%AA</t>
   </si>
   <si>
-    <t>父親</t>
+    <t>父亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B7%A3</t>
   </si>
   <si>
-    <t>血緣</t>
+    <t>血缘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>物種</t>
+    <t>物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E5%85%88%E5%B4%87%E6%8B%9C</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
   </si>
   <si>
-    <t>習俗</t>
+    <t>习俗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%98%8E</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E5%A2%93</t>
   </si>
   <si>
-    <t>掃墓</t>
+    <t>扫墓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E4%B8%BB</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%8D%E8%B2%AB</t>
   </si>
   <si>
-    <t>籍貫</t>
+    <t>籍贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1%E6%9C%9B</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%82%E8%99%9F</t>
   </si>
   <si>
-    <t>堂號</t>
+    <t>堂号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
